--- a/4.6_Building_Defensive_Alliance_Latest/performance_check/case2_performance_check_BDA.xlsx
+++ b/4.6_Building_Defensive_Alliance_Latest/performance_check/case2_performance_check_BDA.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,18 +440,406 @@
           <t>Time with Visualization</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>K count</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Set D</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.18287037037037e-08</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.246527777777778e-05</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.305555555555555e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0001023842592592593</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0001045023148148148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>550</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0003406828703703704</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0003461689814814815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0009026157407407408</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0009128472222222222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.001678136574074074</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.001694965277777778</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.005845150462962963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.005870486111111111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.004884305555555556</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.004917071759259259</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.007001226851851851</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.007053252314814814</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2350</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.0100365162037037</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.01009341435185185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2650</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.01478174768518519</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.01486884259259259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2950</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5500</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.02665149305555556</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.02680459490740741</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>500</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1.790509259259259e-05</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.84837962962963e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>250</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.0001399652777777778</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.0001421990740740741</v>
+      </c>
+      <c r="D14" t="n">
+        <v>550</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.0004803935185185185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.0004858449074074074</v>
+      </c>
+      <c r="D15" t="n">
+        <v>850</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.001090555555555556</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.001099953703703704</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.002271539351851852</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.002286863425925926</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>500</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1.77662037037037e-05</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1.841435185185185e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>250</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0.0002292129629629629</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.0002317592592592593</v>
+      </c>
+      <c r="D19" t="n">
+        <v>550</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.0005102314814814815</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.0005155439814814815</v>
+      </c>
+      <c r="D20" t="n">
+        <v>850</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.00115912037037037</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.001168460648148148</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.002219548611111111</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.002235</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>500</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1.653935185185185e-05</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.000175162037037037</v>
+      </c>
+      <c r="D23" t="n">
+        <v>250</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>500</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1.84030787037037e-05</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.0001714855787037037</v>
+      </c>
+      <c r="D24" t="n">
+        <v>250</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
